--- a/Project1_Data/Execution queries tested and results/Optimization Mariana - Execution testing results.xlsx
+++ b/Project1_Data/Execution queries tested and results/Optimization Mariana - Execution testing results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\DB_Syst_Architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\DB_Syst_Architecture\Execution queries tested and results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C47EE2-5034-4B71-8776-D64FAABC0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDA4C9-E970-482F-A5B6-9AEA5DB8C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{932DFCDD-F5E1-4F89-B61F-33F5C47E7E88}"/>
   </bookViews>
   <sheets>
-    <sheet name="P4" sheetId="1" r:id="rId1"/>
-    <sheet name="P3" sheetId="2" r:id="rId2"/>
+    <sheet name="Q1" sheetId="3" r:id="rId1"/>
+    <sheet name="Q3" sheetId="2" r:id="rId2"/>
+    <sheet name="Q4" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="23">
   <si>
     <t>Planning time</t>
   </si>
@@ -80,12 +81,36 @@
   <si>
     <t>-- 3 Subquery join</t>
   </si>
+  <si>
+    <t xml:space="preserve"> just subqueries, except, with distinct in subquery</t>
+  </si>
+  <si>
+    <t>just subqueries, except, no distinct in subquery</t>
+  </si>
+  <si>
+    <t>with, except, with distinct in subquery</t>
+  </si>
+  <si>
+    <t>with, except, no distinct in subquery</t>
+  </si>
+  <si>
+    <t>merge customer in where, just subqueries, except, with distinct in subquery</t>
+  </si>
+  <si>
+    <t>merge customer in where, just subqueries, except, no distinct in subquery</t>
+  </si>
+  <si>
+    <t>merge customer in where, with, except, with distinct in subquery</t>
+  </si>
+  <si>
+    <t>merge customer in where, with, except, no distinct in subquery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +118,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,12 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,11 +480,2682 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56EC9DD-34E2-41AA-B05F-A7EE951D43EE}">
+  <dimension ref="A1:I110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C2">
+        <f>B2+B3</f>
+        <v>13.641</v>
+      </c>
+      <c r="D2" s="4">
+        <f>AVERAGE(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20)</f>
+        <v>14.562899999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.23</v>
+      </c>
+      <c r="H2">
+        <f>G2+G3</f>
+        <v>13.728</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(H2,H4,H6,H8,H10,H12,H14,H16,H18,H20)</f>
+        <v>17.540700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12.939</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12.497999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C4">
+        <f>B4+B5</f>
+        <v>12.935</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="H4">
+        <f>G4+G5</f>
+        <v>23.019000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>12.291</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>22.056000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" si="0">B6+B7</f>
+        <v>12.85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.65</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6" si="1">G6+G7</f>
+        <v>13.377000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>12.218999999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="2">B8+B9</f>
+        <v>13.081000000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8" si="3">G8+G9</f>
+        <v>22.204999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>12.297000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.216999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C20" si="4">B10+B11</f>
+        <v>12.958</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.997</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H20" si="5">G10+G11</f>
+        <v>23.381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>12.311999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>22.384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>22.098000000000003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>14.307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>21.117000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>12.945</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.006</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>22.382999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>12.249000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.376999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>12.907</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>14.349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>12.247999999999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>19.315999999999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.071</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>14.318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18.315999999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>12.898</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.077</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>12.266</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1.026</v>
+      </c>
+      <c r="C31">
+        <f>B31+B32</f>
+        <v>24.094999999999999</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(C31,C33,C35,C37,C39,C41,C43,C45,C47,C49)</f>
+        <v>19.4772</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="H31">
+        <f>G31+G32</f>
+        <v>24.303999999999998</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(H31,H33,H35,H37,H39,H41,H43,H45,H47,H49)</f>
+        <v>19.6663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>23.068999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.266999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C33">
+        <f>B33+B34</f>
+        <v>23.742999999999999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H33">
+        <f>G33+G34</f>
+        <v>23.326999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>22.771999999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>22.366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35" si="6">B35+B36</f>
+        <v>22.364999999999998</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35" si="7">G35+G36</f>
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>21.303999999999998</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.420999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="8">B37+B38</f>
+        <v>22.044999999999998</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37" si="9">G37+G38</f>
+        <v>12.471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>21.08</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1.115</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C49" si="10">B39+B40</f>
+        <v>20.105999999999998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H49" si="11">G39+G40</f>
+        <v>12.726000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>18.991</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>12.063000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="10"/>
+        <v>20.655999999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>22.498000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>19.669</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>21.445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="10"/>
+        <v>13.347</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1.069</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>17.172999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>12.65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>16.103999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="10"/>
+        <v>22.146999999999998</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>22.646000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>21.178999999999998</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>21.675000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="10"/>
+        <v>12.681999999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>21.955000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>12.048999999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>20.978000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1.046</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="10"/>
+        <v>13.585999999999999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>22.183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>12.54</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C61">
+        <f>B61+B62</f>
+        <v>13.753</v>
+      </c>
+      <c r="D61">
+        <f>AVERAGE(C61,C63,C65,C67,C69,C71,C73,C75,C77,C79)</f>
+        <v>17.841200000000001</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H61">
+        <f>G61+G62</f>
+        <v>13.419</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(H61,H63,H65,H67,H69,H71,H73,H75,H77,H79)</f>
+        <v>15.9008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>12.842000000000001</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>12.496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0.877</v>
+      </c>
+      <c r="C63">
+        <f>B63+B64</f>
+        <v>22.105</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H63">
+        <f>G63+G64</f>
+        <v>12.612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65" si="12">B65+B66</f>
+        <v>13.64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65" si="13">G65+G66</f>
+        <v>24.652000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>12.974</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>23.744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67" si="14">B67+B68</f>
+        <v>14.391</v>
+      </c>
+      <c r="F67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67" si="15">G67+G68</f>
+        <v>13.036999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>13.74</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>12.481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C79" si="16">B69+B70</f>
+        <v>17.41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H79" si="17">G69+G70</f>
+        <v>22.411000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>16.555</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>21.544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="16"/>
+        <v>13.142000000000001</v>
+      </c>
+      <c r="F71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="17"/>
+        <v>16.405999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>12.592000000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>15.567</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="16"/>
+        <v>23.335000000000001</v>
+      </c>
+      <c r="F73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="17"/>
+        <v>13.503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>22.43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>12.949</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="16"/>
+        <v>13.224</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="17"/>
+        <v>13.694000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>12.436999999999999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>12.787000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="16"/>
+        <v>22.996000000000002</v>
+      </c>
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="17"/>
+        <v>16.282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>21.957000000000001</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>15.366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="16"/>
+        <v>24.416</v>
+      </c>
+      <c r="F79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="17"/>
+        <v>12.991999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>23.571000000000002</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>12.327999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>21.286000000000001</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>21.331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C91">
+        <f>B91+B92</f>
+        <v>12.952999999999999</v>
+      </c>
+      <c r="D91">
+        <f>AVERAGE(C91,C93,C95,C97,C99,C101,C103,C105,C107,C109)</f>
+        <v>16.028300000000002</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H91">
+        <f>G91+G92</f>
+        <v>12.778</v>
+      </c>
+      <c r="I91">
+        <f>AVERAGE(H91,H93,H95,H97,H99,H101,H103,H105,H107,H109)</f>
+        <v>15.792100000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>12.135</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0.875</v>
+      </c>
+      <c r="C93">
+        <f>B93+B94</f>
+        <v>23.555</v>
+      </c>
+      <c r="F93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H93">
+        <f>G93+G94</f>
+        <v>12.778</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>22.68</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95" si="18">B95+B96</f>
+        <v>13.728</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0.88</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95" si="19">G95+G96</f>
+        <v>21.387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>12.84</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>20.507000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97" si="20">B97+B98</f>
+        <v>13.533999999999999</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ref="H97" si="21">G97+G98</f>
+        <v>13.205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>12.972</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>12.648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0.876</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ref="C99:C109" si="22">B99+B100</f>
+        <v>18.891000000000002</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ref="H99:H109" si="23">G99+G100</f>
+        <v>22.273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>21.457999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="22"/>
+        <v>13.780000000000001</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="23"/>
+        <v>13.897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>12.945</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0.877</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="22"/>
+        <v>24.331</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="23"/>
+        <v>22.184000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>23.454000000000001</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>21.327000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="22"/>
+        <v>13.587</v>
+      </c>
+      <c r="F105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="23"/>
+        <v>13.195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>12.704000000000001</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>12.661</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="22"/>
+        <v>12.633000000000001</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="23"/>
+        <v>12.568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>12.086</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="22"/>
+        <v>13.290999999999999</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="23"/>
+        <v>13.656000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>12.622999999999999</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>12.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688280B0-5BE0-48C0-B4F0-760DF7F26950}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C2">
+        <f>B2+B3</f>
+        <v>9.4699999999999989</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20)</f>
+        <v>9.5119000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9.2989999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C4">
+        <f>B4+B5</f>
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>9.9420000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" si="0">B6+B7</f>
+        <v>9.1579999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8.9809999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.17</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="1">B8+B9</f>
+        <v>8.8979999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8.7279999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.185</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C20" si="2">B10+B11</f>
+        <v>10.215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>9.0860000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>9.2900000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>9.1210000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>9.7379999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>9.5640000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>9.0709999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>9.9730000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>9.6920000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C24">
+        <f>B24+B25</f>
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44)</f>
+        <v>9.384545454545453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>8.5950000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C26">
+        <f>B26+B27</f>
+        <v>10.026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>9.7409999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0.188</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="3">B28+B29</f>
+        <v>8.8250000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>8.6370000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30" si="4">B30+B31</f>
+        <v>8.9779999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>8.8119999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C44" si="5">B32+B33</f>
+        <v>9.0609999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>8.7720000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.188</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>9.4110000000000014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>9.2230000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>9.8360000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>9.5570000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>10.282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>9.9309999999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>9.0789999999999988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>8.9109999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>9.5090000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>9.2249999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>9.3419999999999987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>9.0839999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C50">
+        <f>B50+B51</f>
+        <v>10.096</v>
+      </c>
+      <c r="D50">
+        <f>AVERAGE(C50,C52,C54,C56,C58,C60,C62,C64,C66,C68)</f>
+        <v>9.5581999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>9.8209999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C52">
+        <f>B52+B53</f>
+        <v>8.9169999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>8.7520000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54" si="6">B54+B55</f>
+        <v>9.923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>9.6509999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56" si="7">B56+B57</f>
+        <v>9.9789999999999992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>9.7210000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58" si="8">B58+B59</f>
+        <v>9.8019999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>9.5269999999999992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60" si="9">B60+B61</f>
+        <v>9.077</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>8.9109999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="10">B62+B63</f>
+        <v>9.1319999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>8.9649999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0.17</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64" si="11">B64+B65</f>
+        <v>9.4809999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>9.3109999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66" si="12">B66+B67</f>
+        <v>9.4449999999999985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>9.2769999999999992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68" si="13">B68+B69</f>
+        <v>9.7299999999999986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>9.4529999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C75">
+        <f>B75+B76</f>
+        <v>10.588000000000001</v>
+      </c>
+      <c r="D75">
+        <f>AVERAGE(C75,C77,C79,C81,C83,C85,C87,C89,C91,C93,C95)</f>
+        <v>9.5040000000000013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>10.426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C77">
+        <f>B77+B78</f>
+        <v>9.7289999999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>9.4619999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0.16</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79" si="14">B79+B80</f>
+        <v>9.838000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>9.6780000000000008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0.153</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81" si="15">B81+B82</f>
+        <v>9.511000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>9.3580000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0.158</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83" si="16">B83+B84</f>
+        <v>9.516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>9.3580000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0.157</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85" si="17">B85+B86</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>9.1029999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0.156</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ref="C87" si="18">B87+B88</f>
+        <v>8.7840000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>8.6280000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0.157</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89" si="19">B89+B90</f>
+        <v>8.6379999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>8.4809999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0.157</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91" si="20">B91+B92</f>
+        <v>9.3840000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>9.2270000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0.154</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93" si="21">B93+B94</f>
+        <v>9.3550000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>9.2010000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95" si="22">B95+B96</f>
+        <v>9.9410000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>9.6790000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C100">
+        <f>B100+B101</f>
+        <v>9.1110000000000007</v>
+      </c>
+      <c r="D100">
+        <f>AVERAGE(C100,C102,C104,C106,C108,C110,C112,C114,C116,C118,C120)</f>
+        <v>9.0313636363636363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>8.843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0.156</v>
+      </c>
+      <c r="C102">
+        <f>B102+B103</f>
+        <v>9.5549999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>9.3989999999999991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ref="C104" si="23">B104+B105</f>
+        <v>9.5169999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0.157</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106" si="24">B106+B107</f>
+        <v>8.923</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>8.766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108" si="25">B108+B109</f>
+        <v>9.4570000000000007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>9.1950000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0.156</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ref="C110" si="26">B110+B111</f>
+        <v>8.7520000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>8.5960000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0.158</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ref="C112" si="27">B112+B113</f>
+        <v>8.7149999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>8.5570000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0.27</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ref="C114" si="28">B114+B115</f>
+        <v>8.9049999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>8.6349999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0.152</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ref="C116" si="29">B116+B117</f>
+        <v>8.7909999999999986</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>8.6389999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118" si="30">B118+B119</f>
+        <v>9.032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>8.7710000000000008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0.157</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ref="C120" si="31">B120+B121</f>
+        <v>8.5869999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>8.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5048E-EA95-41CB-A184-5F6EBBE89A68}">
   <dimension ref="B2:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,7 +3167,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -827,7 +3539,10 @@
         <v>46.762</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>3</v>
       </c>
@@ -835,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -865,7 +3580,7 @@
         <v>58.272000000000006</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -879,7 +3594,7 @@
         <v>34.920999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -901,7 +3616,7 @@
         <v>57.034000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -915,7 +3630,7 @@
         <v>54.188000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -937,7 +3652,7 @@
         <v>79.516999999999996</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -951,7 +3666,7 @@
         <v>76.873999999999995</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -973,7 +3688,7 @@
         <v>86.13900000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -987,7 +3702,7 @@
         <v>83.584000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +3724,7 @@
         <v>51.125999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +3738,7 @@
         <v>48.747999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +3760,7 @@
         <v>60.906999999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +3774,7 @@
         <v>58.494</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +3796,7 @@
         <v>61.720000000000006</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +3810,7 @@
         <v>59.09</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +3832,7 @@
         <v>55.433999999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +3846,7 @@
         <v>52.920999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +3868,7 @@
         <v>58.474999999999994</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +3882,7 @@
         <v>56.101999999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +3904,7 @@
         <v>34.988</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1203,11 +3918,12 @@
         <v>33.555</v>
       </c>
     </row>
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q49" t="s">
@@ -2283,1129 +4999,6 @@
       </c>
       <c r="F93">
         <v>59.351999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688280B0-5BE0-48C0-B4F0-760DF7F26950}">
-  <dimension ref="A1:D121"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C2">
-        <f>B2+B3</f>
-        <v>9.4699999999999989</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20)</f>
-        <v>9.5119000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9.2989999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C4">
-        <f>B4+B5</f>
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>9.9420000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6" si="0">B6+B7</f>
-        <v>9.1579999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>8.9809999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0.17</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8" si="1">B8+B9</f>
-        <v>8.8979999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8.7279999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0.185</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C20" si="2">B10+B11</f>
-        <v>10.215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>9.0860000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>8.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>9.2900000000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>9.1210000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>9.7379999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>9.5640000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>9.0709999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>9.9730000000000008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>9.6920000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="C24">
-        <f>B24+B25</f>
-        <v>8.8810000000000002</v>
-      </c>
-      <c r="D24">
-        <f>AVERAGE(C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44)</f>
-        <v>9.384545454545453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>8.5950000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="C26">
-        <f>B26+B27</f>
-        <v>10.026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>9.7409999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0.188</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28" si="3">B28+B29</f>
-        <v>8.8250000000000011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>8.6370000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ref="C30" si="4">B30+B31</f>
-        <v>8.9779999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>8.8119999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:C44" si="5">B32+B33</f>
-        <v>9.0609999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>8.7720000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>0.188</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="5"/>
-        <v>9.4110000000000014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>9.2230000000000008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="5"/>
-        <v>9.8360000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>9.5570000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="5"/>
-        <v>10.282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>9.9309999999999992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="5"/>
-        <v>9.0789999999999988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>8.9109999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="5"/>
-        <v>9.5090000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>9.2249999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="5"/>
-        <v>9.3419999999999987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>9.0839999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C50">
-        <f>B50+B51</f>
-        <v>10.096</v>
-      </c>
-      <c r="D50">
-        <f>AVERAGE(C50,C52,C54,C56,C58,C60,C62,C64,C66,C68)</f>
-        <v>9.5581999999999994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>9.8209999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="C52">
-        <f>B52+B53</f>
-        <v>8.9169999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>8.7520000000000007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ref="C54" si="6">B54+B55</f>
-        <v>9.923</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>9.6509999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ref="C56" si="7">B56+B57</f>
-        <v>9.9789999999999992</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>9.7210000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ref="C58:C70" si="8">B58+B59</f>
-        <v>9.8019999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>9.5269999999999992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ref="C60:C71" si="9">B60+B61</f>
-        <v>9.077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>8.9109999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ref="C62:C71" si="10">B62+B63</f>
-        <v>9.1319999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63">
-        <v>8.9649999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>0.17</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64:C71" si="11">B64+B65</f>
-        <v>9.4809999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>9.3109999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C71" si="12">B66+B67</f>
-        <v>9.4449999999999985</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>9.2769999999999992</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ref="C68:C71" si="13">B68+B69</f>
-        <v>9.7299999999999986</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>9.4529999999999994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="C75">
-        <f>B75+B76</f>
-        <v>10.588000000000001</v>
-      </c>
-      <c r="D75">
-        <f>AVERAGE(C75,C77,C79,C81,C83,C85,C87,C89,C91,C93,C95)</f>
-        <v>9.5040000000000013</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>10.426</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C77">
-        <f>B77+B78</f>
-        <v>9.7289999999999992</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>9.4619999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>0.16</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ref="C79" si="14">B79+B80</f>
-        <v>9.838000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>9.6780000000000008</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81">
-        <v>0.153</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ref="C81" si="15">B81+B82</f>
-        <v>9.511000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>9.3580000000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>0.158</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ref="C83:C95" si="16">B83+B84</f>
-        <v>9.516</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>9.3580000000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>0.157</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ref="C85:C96" si="17">B85+B86</f>
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>9.1029999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>0.156</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ref="C87:C96" si="18">B87+B88</f>
-        <v>8.7840000000000007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>8.6280000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>0.157</v>
-      </c>
-      <c r="C89">
-        <f t="shared" ref="C89:C96" si="19">B89+B90</f>
-        <v>8.6379999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>8.4809999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91">
-        <v>0.157</v>
-      </c>
-      <c r="C91">
-        <f t="shared" ref="C91:C96" si="20">B91+B92</f>
-        <v>9.3840000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>9.2270000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93">
-        <v>0.154</v>
-      </c>
-      <c r="C93">
-        <f t="shared" ref="C93:C96" si="21">B93+B94</f>
-        <v>9.3550000000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>9.2010000000000005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ref="C95:C96" si="22">B95+B96</f>
-        <v>9.9410000000000007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>9.6790000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="C100">
-        <f>B100+B101</f>
-        <v>9.1110000000000007</v>
-      </c>
-      <c r="D100">
-        <f>AVERAGE(C100,C102,C104,C106,C108,C110,C112,C114,C116,C118,C120)</f>
-        <v>9.0313636363636363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>8.843</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102">
-        <v>0.156</v>
-      </c>
-      <c r="C102">
-        <f>B102+B103</f>
-        <v>9.5549999999999997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>9.3989999999999991</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C104">
-        <f t="shared" ref="C104" si="23">B104+B105</f>
-        <v>9.5169999999999995</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106">
-        <v>0.157</v>
-      </c>
-      <c r="C106">
-        <f t="shared" ref="C106" si="24">B106+B107</f>
-        <v>8.923</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>8.766</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="C108">
-        <f t="shared" ref="C108:C120" si="25">B108+B109</f>
-        <v>9.4570000000000007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>9.1950000000000003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>0.156</v>
-      </c>
-      <c r="C110">
-        <f t="shared" ref="C110:C121" si="26">B110+B111</f>
-        <v>8.7520000000000007</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>8.5960000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>0.158</v>
-      </c>
-      <c r="C112">
-        <f t="shared" ref="C112:C121" si="27">B112+B113</f>
-        <v>8.7149999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>8.5570000000000004</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>0.27</v>
-      </c>
-      <c r="C114">
-        <f t="shared" ref="C114:C121" si="28">B114+B115</f>
-        <v>8.9049999999999994</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>8.6349999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>0.152</v>
-      </c>
-      <c r="C116">
-        <f t="shared" ref="C116:C121" si="29">B116+B117</f>
-        <v>8.7909999999999986</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>8.6389999999999993</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C118">
-        <f t="shared" ref="C118:C121" si="30">B118+B119</f>
-        <v>9.032</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>8.7710000000000008</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <v>0.157</v>
-      </c>
-      <c r="C120">
-        <f t="shared" ref="C120:C121" si="31">B120+B121</f>
-        <v>8.5869999999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>8.43</v>
       </c>
     </row>
   </sheetData>

--- a/Project1_Data/Execution queries tested and results/Optimization Mariana - Execution testing results.xlsx
+++ b/Project1_Data/Execution queries tested and results/Optimization Mariana - Execution testing results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\DB_Syst_Architecture\Execution queries tested and results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDA4C9-E970-482F-A5B6-9AEA5DB8C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B108C77-637B-4C5D-B52F-A7922A5359C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{932DFCDD-F5E1-4F89-B61F-33F5C47E7E88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{932DFCDD-F5E1-4F89-B61F-33F5C47E7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="3" r:id="rId1"/>
-    <sheet name="Q3" sheetId="2" r:id="rId2"/>
-    <sheet name="Q4" sheetId="1" r:id="rId3"/>
+    <sheet name="Q2" sheetId="4" r:id="rId2"/>
+    <sheet name="Q3" sheetId="2" r:id="rId3"/>
+    <sheet name="Q4" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="26">
   <si>
     <t>Planning time</t>
   </si>
@@ -104,6 +105,15 @@
   </si>
   <si>
     <t>merge customer in where, with, except, no distinct in subquery</t>
+  </si>
+  <si>
+    <t>optimized by lily</t>
+  </si>
+  <si>
+    <t>with cte</t>
+  </si>
+  <si>
+    <t>subquery</t>
   </si>
 </sst>
 </file>
@@ -483,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56EC9DD-34E2-41AA-B05F-A7EE951D43EE}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2027,6 +2037,648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F6A3CF-DD3E-465C-8BEE-C450E15D1949}">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C2">
+        <f>B2+B3</f>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20)</f>
+        <v>1.3821999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C4">
+        <f>B4+B5</f>
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" si="0">B6+B7</f>
+        <v>1.7959999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="1">B8+B9</f>
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C20" si="2">B10+B11</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>1.4869999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C28">
+        <f>B28+B29</f>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(C28,C30,C32,C34,C36,C38,C40,C42,C44,C46)</f>
+        <v>1.2378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C30">
+        <f>B30+B31</f>
+        <v>0.96500000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32" si="3">B32+B33</f>
+        <v>1.401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34" si="4">B34+B35</f>
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0.497</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C46" si="5">B36+B37</f>
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C47" si="6">B38+B39</f>
+        <v>1.3620000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:C47" si="7">B40+B41</f>
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C47" si="8">B42+B43</f>
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0.49</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:C47" si="9">B44+B45</f>
+        <v>1.2149999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C47" si="10">B46+B47</f>
+        <v>1.843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C53">
+        <f>B53+B54</f>
+        <v>1.3639999999999999</v>
+      </c>
+      <c r="D53">
+        <f>AVERAGE(C53,C55,C57,C59,C61,C63,C65,C67,C69,C71)</f>
+        <v>1.2098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C55">
+        <f>B55+B56</f>
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0.33</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57" si="11">B57+B58</f>
+        <v>1.6680000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1.3380000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0.26</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59" si="12">B59+B60</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C71" si="13">B61+B62</f>
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:C72" si="14">B63+B64</f>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:C72" si="15">B65+B66</f>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C72" si="16">B67+B68</f>
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C72" si="17">B69+B70</f>
+        <v>1.7289999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>1.2609999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0.37</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C72" si="18">B71+B72</f>
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688280B0-5BE0-48C0-B4F0-760DF7F26950}">
   <dimension ref="A1:D121"/>
   <sheetViews>
@@ -3150,7 +3802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5048E-EA95-41CB-A184-5F6EBBE89A68}">
   <dimension ref="B2:T93"/>
   <sheetViews>
